--- a/database.xlsx
+++ b/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hoc-fpt-2\nodejs\appchovanhan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoc-fpt\code-tren-lop\php\xampp3\htdocs\app_togiveaway\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mục tiêu và mô tả" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>content</t>
   </si>
@@ -244,30 +244,7 @@
     <t>id_blog</t>
   </si>
   <si>
-    <t>Anh Bảo</t>
-  </si>
-  <si>
-    <t>show bài đăng(chú ý tiêu chí show ở phần trang chủ,ở trang home thì show tất cả bài viết,
-ở trang follow thì show những bài viết được theo dõi, sắp xếp theo thời gian)</t>
-  </si>
-  <si>
-    <t>Viết api show,thêm, xoá,sửa bài đăng</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sửa lại phần front end còn thiếu như: thăng hạng,
-</t>
-  </si>
-  <si>
-    <t>click vào show,hide, bình luận</t>
-  </si>
-  <si>
-    <t>xử lý phần hình ảnh, nếu có 6-7 ảnh thì như thế nào ?</t>
-  </si>
-  <si>
-    <t>thêm thành phố,tỉnh</t>
+    <t>làm tiếp thêm xoá sửa</t>
   </si>
 </sst>
 </file>
@@ -408,87 +385,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>159033</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229475" y="1581150"/>
-          <a:ext cx="1724025" cy="1340133"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219077</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>51577</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7143751" y="2981327"/>
-          <a:ext cx="2337576" cy="1076324"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,7 +653,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1280,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,47 +1187,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>71</v>
-      </c>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>content</t>
   </si>
@@ -176,9 +176,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>repcomment, like comment</t>
-  </si>
-  <si>
     <t xml:space="preserve">sự kiện sẽ được tạo bằng người dùng và admin sẽ kiểm duyệt
 người dùng có thể xem được sự kiện, ví dụ như phát gạo cứu đói mùa covid,
 cho tặng khẩu trang ở ngã năm chuồng chó </t>
@@ -245,6 +242,15 @@
   </si>
   <si>
     <t>làm tiếp thêm xoá sửa</t>
+  </si>
+  <si>
+    <t>xong</t>
+  </si>
+  <si>
+    <t>gần xong</t>
+  </si>
+  <si>
+    <t>repcomment</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="21" x14ac:dyDescent="0.35">
@@ -751,7 +757,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="21" x14ac:dyDescent="0.35">
@@ -763,7 +769,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="21" x14ac:dyDescent="0.35">
@@ -864,10 +870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +885,7 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
@@ -893,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -925,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -942,12 +951,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>37</v>
@@ -959,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -973,13 +982,16 @@
       <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="12" t="s">
@@ -989,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1000,8 +1012,11 @@
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1013,7 +1028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="178.5" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>40</v>
@@ -1030,12 +1045,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>41</v>
@@ -1047,15 +1062,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>38</v>
@@ -1064,15 +1079,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>40</v>
@@ -1081,15 +1096,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>40</v>
@@ -1098,15 +1113,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" ht="76.5" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>38</v>
@@ -1115,15 +1130,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="102" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="102" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>38</v>
@@ -1132,15 +1147,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" ht="76.5" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>38</v>
@@ -1148,16 +1163,19 @@
       <c r="E17" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="102" x14ac:dyDescent="0.5">
+      <c r="F17" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>38</v>
@@ -1198,7 +1216,7 @@
     </row>
     <row r="4" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="13"/>
     </row>
